--- a/tests/resources/offset_errors.xlsx
+++ b/tests/resources/offset_errors.xlsx
@@ -617,13 +617,13 @@
     </row>
     <row r="3">
       <c r="F3">
-        <f>OFFSET(Data!A1, 100, 0)</f>
+        <f>OFFSET(Data!A1, 1048576, 0)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="F4">
-        <f>OFFSET(Data!A1, 0, 100)</f>
+        <f>OFFSET(Data!A1, 0, 16384)</f>
         <v/>
       </c>
     </row>
